--- a/biology/Microbiologie/Fusobacteriaceae/Fusobacteriaceae.xlsx
+++ b/biology/Microbiologie/Fusobacteriaceae/Fusobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fusobacteriaceae sont une famille de bacilles Gram négatifs de l'ordre des Fusobacteriales. Son nom provient de Fusobacterium qui est le genre type de cette famille.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de Fusobacteriaceae est la suivante : N.L. neut. n. Fusobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Fusobacteriaceae, la famille des Fusobacterium[2].
-Nomenclature
-Cette famille est proposée en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[3]. Elle est validée la même année par une publication dans l'IJSEM[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Fusobacteriaceae est la suivante : N.L. neut. n. Fusobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Fusobacteriaceae, la famille des Fusobacterium.
 </t>
         </is>
       </c>
@@ -542,20 +557,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est proposée en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle est validée la même année par une publication dans l'IJSEM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fusobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (13 novembre 2022)[4], les genres composant la famille Fusobacteriaceae sont les suivants[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (13 novembre 2022), les genres composant la famille Fusobacteriaceae sont les suivants :
 Cetobacterium Foster et al. 1996
 Fusobacterium Knorr 1922 – genre type
 Hypnocyclicus Roalkvam et al. 2015
 Ilyobacter Stieb &amp; Schink 1985
 Propionigenium Schink &amp; Pfennig 1983
-Psychrilyobacter Zhao et al. 2009
-Anciens genres
-Les genres Leptotrichia, Sebaldella, Sneathia et Streptobacillus qui faisaient partie de cette famille Fusobacteriaceae, ont été transférés dans la famille Leptotrichiaceae[5].
+Psychrilyobacter Zhao et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fusobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciens genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Leptotrichia, Sebaldella, Sneathia et Streptobacillus qui faisaient partie de cette famille Fusobacteriaceae, ont été transférés dans la famille Leptotrichiaceae.
 </t>
         </is>
       </c>
